--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2068595.455210828</v>
+        <v>2174669.053363671</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9699256.225840498</v>
+        <v>9714408.14096823</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>342.5097469333253</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>63.25786276724418</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>79.79834161250842</v>
       </c>
       <c r="U4" t="n">
-        <v>222.6000206778932</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>78.55873581868968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>196.6997841156795</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>7.054371702530633</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>158.1578030351972</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.1989152844506</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>232.2592575948922</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>113.9059869644538</v>
+        <v>35.69861698824744</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>140.1230996349833</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>86.8894339777008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.05158559392713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>99.70681342859953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>22.04658882052578</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161920278</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>29.24923305751846</v>
+        <v>19.86507844888254</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693977</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>30.65104903283402</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0.01276235473539145</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>139.527197914137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.81060261323905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>73.23997380652436</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>212.4076860934775</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.85302310518107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6164309267675</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1980.127928744901</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1980.127928744901</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>1980.127928744901</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1980.127928744901</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1555.841734607317</v>
       </c>
       <c r="U4" t="n">
-        <v>1510.760158180073</v>
+        <v>1266.723397111155</v>
       </c>
       <c r="V4" t="n">
-        <v>1510.760158180073</v>
+        <v>1266.723397111155</v>
       </c>
       <c r="W4" t="n">
-        <v>1221.342988143112</v>
+        <v>977.3062270741945</v>
       </c>
       <c r="X4" t="n">
-        <v>993.3534372450949</v>
+        <v>749.3166761761771</v>
       </c>
       <c r="Y4" t="n">
-        <v>772.5608581015648</v>
+        <v>528.524097032647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150257</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082752</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>198.893319710031</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>507.241398742975</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>801.9449557744468</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>708.3064969624544</v>
+        <v>515.8118151303141</v>
       </c>
       <c r="C7" t="n">
-        <v>539.3703140345475</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D7" t="n">
-        <v>389.2536746222117</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>241.3405810398186</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>241.3405810398186</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>73.63774441453759</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>73.63774441453759</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1476.690763473288</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1253.712282668024</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>964.5939451718616</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>964.5939451718616</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.088627004002</v>
+        <v>964.5939451718616</v>
       </c>
       <c r="X7" t="n">
-        <v>929.0990761059845</v>
+        <v>736.6043942738443</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.3064969624544</v>
+        <v>515.8118151303141</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1867.11669882964</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1498.154181889228</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1139.888483282478</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>754.1002306842336</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>343.114325894626</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1812.237995599146</v>
+        <v>1609.718997593809</v>
       </c>
       <c r="U10" t="n">
-        <v>1523.135128724789</v>
+        <v>1609.718997593809</v>
       </c>
       <c r="V10" t="n">
-        <v>1268.450640518902</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="W10" t="n">
-        <v>979.0334704819413</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X10" t="n">
-        <v>751.043919583924</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.2513404403938</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>3210.485548300425</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>3210.485548300425</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>3445.398957336244</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>3997.308687575531</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P12" t="n">
-        <v>4420.931837070599</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263527</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5285,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537118</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D16" t="n">
-        <v>643.582908441376</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E16" t="n">
-        <v>495.6698148589829</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>348.7798673610725</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>181.5837680759525</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3233.200736907821</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>3064.264553979915</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>2914.147914567579</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>2766.234820985186</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>2619.344873487275</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>2452.148774202155</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>3932.255922673039</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>3642.838752636078</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>3414.849201738061</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>3414.849201738061</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>741.8431516380886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>591.7265122257528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>443.8134186433597</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>443.8134186433597</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>276.6173193582396</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>2823.935653491667</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>2654.99947056376</v>
       </c>
       <c r="D25" t="n">
-        <v>572.9069687101817</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E25" t="n">
-        <v>424.9938751277886</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4689.999432584258</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.144598239162</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4287.543133262104</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>3998.467906606302</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3743.783418400415</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3454.366248363454</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>3226.376697465437</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>3005.584118321907</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>2655.833190378096</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>2655.833190378096</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F28" t="n">
-        <v>2508.943242880186</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G28" t="n">
-        <v>2508.943242880186</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H28" t="n">
-        <v>2367.231411722384</v>
+        <v>113.8823988549239</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6546,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2977.325134535463</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C31" t="n">
-        <v>2808.388951607556</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2658.272312195221</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2510.359218612828</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2510.359218612828</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2510.359218612828</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2368.647387455026</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y31" t="n">
-        <v>3158.973599365703</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6786,19 +6788,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.950192312851</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.095357967755</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.493892990697</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.255922673039</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W34" t="n">
-        <v>3791.319359123406</v>
+        <v>1211.317008092047</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225389</v>
+        <v>983.3274571940295</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081859</v>
+        <v>762.5348780504994</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1846595309963</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>943.510265746755</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7248,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,22 +7435,22 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,19 +7484,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3175.341129796739</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="C43" t="n">
-        <v>3006.404946868832</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456496</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874103</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430192</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="Y43" t="n">
-        <v>3356.989594626978</v>
+        <v>3173.601046153953</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,7 +7642,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.3409563819265</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3403484614387</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4041655335318</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>664.287526121196</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3744325388029</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4844850408925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.35797727397704</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>6.310863011585866</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40527886852308</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>108.2431272522968</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>40.58789941762436</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.3744592024055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.54986409392966</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>52.01660326104707</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.61478728573151</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3624843553863</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>146.995800422454</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>75.37549921168799</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>13.30196929555964</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.7316302469137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>32.9077073655013</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>849497.0856560508</v>
+        <v>857221.5914074429</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>849497.0856560508</v>
+        <v>857221.5914074429</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752542</v>
@@ -26350,10 +26352,10 @@
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309561</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-929337.6943004756</v>
+        <v>-747956.4098411426</v>
       </c>
       <c r="C6" t="n">
-        <v>399407.0514271166</v>
+        <v>366795.3737347775</v>
       </c>
       <c r="D6" t="n">
-        <v>399407.0514271165</v>
+        <v>206779.9109867789</v>
       </c>
       <c r="E6" t="n">
-        <v>149919.0367522477</v>
+        <v>149919.0367522481</v>
       </c>
       <c r="F6" t="n">
         <v>475331.4985596029</v>
       </c>
       <c r="G6" t="n">
-        <v>475331.4985596032</v>
+        <v>475331.4985596029</v>
       </c>
       <c r="H6" t="n">
-        <v>475331.4985596032</v>
+        <v>475331.4985596029</v>
       </c>
       <c r="I6" t="n">
-        <v>475331.498559603</v>
+        <v>475331.4985596029</v>
       </c>
       <c r="J6" t="n">
-        <v>257800.2961623254</v>
+        <v>307726.3207496207</v>
       </c>
       <c r="K6" t="n">
-        <v>475331.4985596029</v>
+        <v>475331.4985596031</v>
       </c>
       <c r="L6" t="n">
-        <v>475331.4985596028</v>
+        <v>427037.5285514123</v>
       </c>
       <c r="M6" t="n">
         <v>390276.470624091</v>
@@ -26558,10 +26560,10 @@
         <v>475331.4985596029</v>
       </c>
       <c r="O6" t="n">
-        <v>475331.4985596028</v>
+        <v>475331.4985596031</v>
       </c>
       <c r="P6" t="n">
-        <v>475331.4985596033</v>
+        <v>475331.4985596032</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>12.17329468735767</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>140.9503543847035</v>
       </c>
       <c r="U4" t="n">
-        <v>63.61181752771967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>328.3173099230218</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>9.958400864554278</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>89.29804870730746</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>36.50465732654024</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.53492637903</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>178.6624680585612</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.6429623117154</v>
+        <v>183.8503322879218</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,7 +31852,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>353.3934907042774</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N24" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33266,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>200.3460366764704</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8708611242914</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34219,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>211.5147800288493</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>176.8386996048316</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>397.62039746764</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533519</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>219.4190832899471</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N24" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36610,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>57.74979223202591</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>127.0294221499325</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317795</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>77.5403726145191</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174669.053363671</v>
+        <v>2170573.411858905</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>342.5097469333253</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>228.6947322088292</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>141.6464229351534</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>79.79834161250842</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>143.4576033726048</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>196.6997841156795</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>158.1578030351972</v>
+        <v>28.10611305861839</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.1989152844506</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>151.2796191729011</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>118.4943067351079</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>35.69861698824744</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>145.6718493954792</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>140.1230996349833</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.28101103997132</v>
       </c>
     </row>
     <row r="20">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>134.4555615353791</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161920278</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>19.86507844888254</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>91.87132188693977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>34.45703212904731</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>64.36993339924462</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.01276235473539145</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>157.0680868942518</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>73.23997380652436</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>71.60395572454127</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1980.127928744901</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C2" t="n">
-        <v>1980.127928744901</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1494.730474240484</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1108.94222164224</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>697.9563168526327</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>282.2515665769215</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.127928744901</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1980.127928744901</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
         <v>1081.114527508758</v>
@@ -4427,13 +4427,13 @@
         <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.9309660677</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8756322024072</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1555.841734607317</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1266.723397111155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1266.723397111155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>977.3062270741945</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X4" t="n">
-        <v>749.3166761761771</v>
+        <v>819.8272448149628</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.524097032647</v>
+        <v>599.0346656714327</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>977.0694062730063</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>977.0694062730063</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>618.8037076662558</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>618.8037076662558</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>207.8178028766483</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>196.1534566413412</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2363.652677778257</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2363.652677778257</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.652677778257</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2363.652677778257</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1363.669246337128</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.241398742975</v>
+        <v>560.139411173514</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744468</v>
+        <v>854.8429682049855</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8118151303141</v>
+        <v>624.8936537153462</v>
       </c>
       <c r="C7" t="n">
-        <v>346.8756322024072</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.690763473288</v>
+        <v>1608.056106883973</v>
       </c>
       <c r="T7" t="n">
-        <v>1253.712282668024</v>
+        <v>1385.077626078709</v>
       </c>
       <c r="U7" t="n">
-        <v>964.5939451718616</v>
+        <v>1095.959288582547</v>
       </c>
       <c r="V7" t="n">
-        <v>964.5939451718616</v>
+        <v>1095.959288582547</v>
       </c>
       <c r="W7" t="n">
-        <v>964.5939451718616</v>
+        <v>806.5421185455859</v>
       </c>
       <c r="X7" t="n">
-        <v>736.6043942738443</v>
+        <v>806.5421185455859</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8118151303141</v>
+        <v>806.5421185455859</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>261.3167113269582</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>283.5290125381895</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>283.5290125381895</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>283.5290125381895</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1609.718997593809</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1609.718997593809</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1355.034509387922</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1355.034509387922</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.044958489905</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.402603663004</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4664207350971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227614</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,19 +5773,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2823.935653491667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2654.99947056376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4689.999432584258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.144598239162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4287.543133262104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3998.467906606302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3743.783418400415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3454.366248363454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3226.376697465437</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3005.584118321907</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>422.7903292978459</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>422.7903292978459</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>255.5942300127259</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>113.8823988549239</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.530292372932</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487567</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.37805728168</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346702</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.178757203172</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.950192312851</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.095357967755</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.493892990697</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.418666334894</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.734178129007</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.317008092047</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3274571940295</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5348780504994</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277355</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>215.8238677453423</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>215.8238677453423</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>215.8238677453423</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>853.5941094450255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7435,28 +7435,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3173.601046153953</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153953</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>3173.601046153953</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>3173.601046153953</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.743458178064</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.35797727397704</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241551</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>54.95314511566585</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>80.03780599355798</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>6.310863011585866</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>161.3036423121235</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.6820817884489</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.54986409392966</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>75.37549921168807</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>182.948418198241</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>115.4620467826927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3624843553863</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>19.50758019582713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>60.33736343303642</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>75.37549921168799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>109.4223302771033</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26420,10 +26420,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26450,13 +26450,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744319</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-747956.4098411426</v>
       </c>
       <c r="C6" t="n">
-        <v>366795.3737347775</v>
+        <v>366795.3737347774</v>
       </c>
       <c r="D6" t="n">
-        <v>206779.9109867789</v>
+        <v>206779.9109867781</v>
       </c>
       <c r="E6" t="n">
-        <v>149919.0367522481</v>
+        <v>149571.657497891</v>
       </c>
       <c r="F6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="G6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.1193052462</v>
       </c>
       <c r="H6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="I6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="J6" t="n">
-        <v>307726.3207496207</v>
+        <v>307378.9414952633</v>
       </c>
       <c r="K6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.1193052458</v>
       </c>
       <c r="L6" t="n">
-        <v>427037.5285514123</v>
+        <v>426690.1492970553</v>
       </c>
       <c r="M6" t="n">
-        <v>390276.470624091</v>
+        <v>389929.091369734</v>
       </c>
       <c r="N6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="O6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.1193052459</v>
       </c>
       <c r="P6" t="n">
-        <v>475331.4985596032</v>
+        <v>474984.1193052462</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,34 +26959,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>155.7118084757595</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>155.7118084757589</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>12.17329468735767</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72.32382035357617</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>24.66017710965079</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>140.9503543847035</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>157.5609491898006</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.958400864554278</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>36.50465732654024</v>
+        <v>166.5563473031191</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.53492637903</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>259.6421064805523</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>26.2607081792129</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>183.8503322879218</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,25 +31846,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>572.868299221487</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>316.2462973459355</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>418.4229873015963</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.8386996048316</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>397.62039746764</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>421.8844773977062</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317795</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2170573.411858905</v>
+        <v>2172333.942161691</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>228.6947322088291</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>228.6947322088292</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>63.37201517278966</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.6464229351534</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>194.0399829583444</v>
       </c>
       <c r="H5" t="n">
-        <v>143.4576033726048</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.15826649801821</v>
       </c>
       <c r="S7" t="n">
-        <v>28.10611305861839</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1113,10 +1113,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>221.9553631168996</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2796191729011</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>118.4943067351079</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>56.52878216847724</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1185786361432</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>145.6718493954792</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.069540131683943</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.28101103997132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>134.4555615353791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444142</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>164.9367233701398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>34.45703212904731</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.36993339924462</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>157.0680868942518</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>71.60395572454127</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4309,19 +4309,19 @@
         <v>1852.996172847235</v>
       </c>
       <c r="C2" t="n">
-        <v>1852.996172847235</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>1494.730474240484</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1108.94222164224</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>697.9563168526327</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>282.2515665769215</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>599.0346656714327</v>
+        <v>519.9696073256107</v>
       </c>
       <c r="C4" t="n">
-        <v>599.0346656714327</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D4" t="n">
-        <v>448.9180262590969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>448.9180262590969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>448.9180262590969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>1150.400202197398</v>
       </c>
       <c r="X4" t="n">
-        <v>819.8272448149628</v>
+        <v>922.4106512993806</v>
       </c>
       <c r="Y4" t="n">
-        <v>599.0346656714327</v>
+        <v>701.6180721558504</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>977.0694062730063</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C5" t="n">
-        <v>977.0694062730063</v>
+        <v>998.2462213084077</v>
       </c>
       <c r="D5" t="n">
-        <v>618.8037076662558</v>
+        <v>639.9805227016573</v>
       </c>
       <c r="E5" t="n">
-        <v>618.8037076662558</v>
+        <v>254.192270103413</v>
       </c>
       <c r="F5" t="n">
-        <v>207.8178028766483</v>
+        <v>247.2467693542096</v>
       </c>
       <c r="G5" t="n">
-        <v>196.1534566413412</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.669246337128</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.139411173514</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049855</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.8936537153462</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1626.185244823974</v>
       </c>
       <c r="S7" t="n">
-        <v>1608.056106883973</v>
+        <v>1429.556496983835</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.077626078709</v>
+        <v>1206.578016178571</v>
       </c>
       <c r="U7" t="n">
-        <v>1095.959288582547</v>
+        <v>917.4596786824086</v>
       </c>
       <c r="V7" t="n">
-        <v>1095.959288582547</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="W7" t="n">
-        <v>806.5421185455859</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="X7" t="n">
-        <v>806.5421185455859</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.5421185455859</v>
+        <v>662.7751904765217</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269582</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.4421061205826</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C10" t="n">
-        <v>431.4421061205826</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>431.4421061205826</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>283.5290125381895</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>283.5290125381895</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>283.5290125381895</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1780.364310877862</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1558.597695447388</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1558.597695447388</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1303.913207241501</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621301</v>
+        <v>1014.496037204541</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641127</v>
+        <v>786.5064863065235</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.4421061205826</v>
+        <v>786.5064863065235</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5123,16 +5123,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>704.6685841991609</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>556.7554906167678</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>409.8655431188574</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>242.6694438337374</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>100.9576126759355</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362691</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2412.158000621627</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.5276345711973</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9099533103043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2105.453616008648</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.743458178064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>54.95314511566585</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>80.03780599355798</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>74.1962961868816</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.3036423121235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.6820817884489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>182.948418198241</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.4620467826927</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>60.33736343303642</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>109.4223302771033</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073549</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>48293.97000819077</v>
@@ -26420,19 +26420,19 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26453,7 +26453,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26527,43 +26527,43 @@
         <v>366795.3737347774</v>
       </c>
       <c r="D6" t="n">
-        <v>206779.9109867781</v>
+        <v>206779.9109867788</v>
       </c>
       <c r="E6" t="n">
-        <v>149571.657497891</v>
+        <v>149884.2988268124</v>
       </c>
       <c r="F6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="G6" t="n">
-        <v>474984.1193052462</v>
+        <v>475296.7606341671</v>
       </c>
       <c r="H6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="I6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341676</v>
       </c>
       <c r="J6" t="n">
-        <v>307378.9414952633</v>
+        <v>307691.5828241847</v>
       </c>
       <c r="K6" t="n">
-        <v>474984.1193052458</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="L6" t="n">
-        <v>426690.1492970553</v>
+        <v>427002.7906259765</v>
       </c>
       <c r="M6" t="n">
-        <v>389929.091369734</v>
+        <v>390241.7326986556</v>
       </c>
       <c r="N6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="O6" t="n">
-        <v>474984.1193052459</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="P6" t="n">
-        <v>474984.1193052462</v>
+        <v>475296.7606341674</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>136.5781595621785</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>72.32382035357617</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8748059258382</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>24.66017710965079</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>217.5077198146096</v>
       </c>
       <c r="H5" t="n">
-        <v>157.5609491898006</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>91.3993059215554</v>
       </c>
       <c r="S7" t="n">
-        <v>166.5563473031191</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>184.9206826248118</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>259.6421064805523</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>26.2607081792129</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.2402431629646</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>572.868299221487</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32247,7 +32247,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>418.4229873015963</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>421.8844773977062</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>381.1895643063683</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>430.2720547770426</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
